--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,118 +49,118 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
@@ -172,39 +172,33 @@
     <t>cook</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
+    <t>pan</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
@@ -214,46 +208,49 @@
     <t>also</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -614,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3953488372093023</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +780,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -835,13 +832,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8544891640866873</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L7">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M7">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +858,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -913,25 +910,25 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7662337662337663</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L10">
+        <v>172</v>
+      </c>
+      <c r="M10">
+        <v>172</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>59</v>
-      </c>
-      <c r="M10">
-        <v>59</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -939,13 +936,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7229437229437229</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -957,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -965,13 +962,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -991,13 +988,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6619718309859155</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1043,13 +1040,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6474576271186441</v>
+        <v>0.65625</v>
       </c>
       <c r="L15">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1069,13 +1066,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6458333333333334</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>812</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>812</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1087,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1095,13 +1092,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6428571428571429</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L17">
-        <v>801</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>801</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>445</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1121,13 +1118,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1147,13 +1144,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1173,13 +1170,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1199,13 +1196,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5921052631578947</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1217,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1225,13 +1222,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5918367346938775</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1243,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1251,13 +1248,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1277,13 +1274,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5873015873015873</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1295,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1303,13 +1300,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5865384615384616</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1329,13 +1326,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1347,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1355,13 +1352,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1381,13 +1378,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5771428571428572</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L28">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1407,13 +1404,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5735294117647058</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1425,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1433,13 +1430,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1451,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1459,13 +1456,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.5389221556886228</v>
+        <v>0.49</v>
       </c>
       <c r="L31">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1485,13 +1482,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.5299145299145299</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L32">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1511,13 +1508,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.51</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L33">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="M33">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1529,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1537,13 +1534,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.5060240963855421</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1555,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1563,25 +1560,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4814814814814815</v>
+        <v>0.4176904176904177</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1589,13 +1586,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.443609022556391</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L36">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1607,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1615,13 +1612,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4216867469879518</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1641,13 +1638,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.4210526315789473</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1659,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1667,13 +1664,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.4085603112840467</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L39">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1685,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>152</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1693,13 +1690,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3725490196078431</v>
+        <v>0.3452054794520548</v>
       </c>
       <c r="L40">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="M40">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>256</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1719,13 +1716,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3603603603603603</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1737,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1745,13 +1742,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3453237410071943</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L42">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1763,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1771,13 +1768,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3425925925925926</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1789,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1797,13 +1794,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3424657534246575</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L44">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1815,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>480</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1849,13 +1846,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3007518796992481</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1875,13 +1872,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2980132450331126</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1893,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1901,13 +1898,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2972972972972973</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>78</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1927,13 +1924,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.297029702970297</v>
+        <v>0.2211920529801324</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>71</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1953,13 +1950,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2561894510226049</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L50">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1971,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>691</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1979,13 +1976,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2348993288590604</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1997,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2005,25 +2002,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2304635761589404</v>
+        <v>0.2038461538461538</v>
       </c>
       <c r="L52">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M52">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>581</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2031,13 +2028,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.2058823529411765</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L53">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2049,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>621</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2057,25 +2054,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1943573667711599</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L54">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M54">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>257</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2083,13 +2080,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1890243902439024</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2101,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2109,25 +2106,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1756756756756757</v>
+        <v>0.1600877192982456</v>
       </c>
       <c r="L56">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M56">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>305</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2135,13 +2132,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1625615763546798</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2153,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2161,25 +2158,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1592592592592593</v>
+        <v>0.1575178997613365</v>
       </c>
       <c r="L58">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>227</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2187,13 +2184,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1575178997613365</v>
+        <v>0.1435523114355231</v>
       </c>
       <c r="L59">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M59">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2205,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2213,13 +2210,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1535087719298246</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L60">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M60">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2231,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2239,25 +2236,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.1414634146341463</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L61">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>352</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2265,13 +2262,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.140893470790378</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L62">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2283,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2291,13 +2288,13 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.137037037037037</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L63">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M63">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2309,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>233</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2317,25 +2314,25 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.1340909090909091</v>
+        <v>0.09260991580916744</v>
       </c>
       <c r="L64">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="M64">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>381</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2343,13 +2340,13 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1260504201680672</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2361,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>208</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2369,25 +2366,25 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.09016393442622951</v>
+        <v>0.0705596107055961</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>333</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2395,25 +2392,25 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.08785046728971962</v>
+        <v>0.06628242074927954</v>
       </c>
       <c r="L67">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M67">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>976</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2421,25 +2418,25 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.08034433285509325</v>
+        <v>0.06088560885608856</v>
       </c>
       <c r="L68">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>641</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2447,25 +2444,25 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.06273062730627306</v>
+        <v>0.05950095969289827</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2473,51 +2470,25 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.06168549087749783</v>
+        <v>0.05892547660311959</v>
       </c>
       <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
         <v>71</v>
       </c>
-      <c r="M70">
-        <v>77</v>
-      </c>
       <c r="N70">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O70">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K71">
-        <v>0.05780346820809248</v>
-      </c>
-      <c r="L71">
-        <v>30</v>
-      </c>
-      <c r="M71">
-        <v>33</v>
-      </c>
-      <c r="N71">
-        <v>0.91</v>
-      </c>
-      <c r="O71">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>489</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
